--- a/Tablas informe CT.xlsx
+++ b/Tablas informe CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa631587986ce8df/Documentos/VS Code/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_55116CFEF0683D64D5D50601C7442F0932BA1A30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{101EF3B8-9687-4A67-B27B-6943765B33F4}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_52081F223B99968E8B0C64F8D3C0A1FAF93ED6AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A8F33B-362B-4F5D-B3C7-E7472680493A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="52">
   <si>
     <t>Especie</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Araucarias</t>
   </si>
   <si>
-    <t>Camtraption</t>
-  </si>
-  <si>
     <t>CoRaTe</t>
   </si>
   <si>
@@ -155,12 +152,27 @@
     <t>CT_16</t>
   </si>
   <si>
-    <t>CT_Camtraption</t>
+    <t>Percentage</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
+    <t>Total_pictures</t>
+  </si>
+  <si>
+    <t>Total_animal_pictures</t>
+  </si>
+  <si>
+    <t>Total_person_pictures</t>
+  </si>
+  <si>
+    <t>Percentage_animal_pictures</t>
+  </si>
+  <si>
+    <t>Percentage_Animal_and_person_pictures</t>
+  </si>
+  <si>
     <t>ID_CamaraTrampa</t>
   </si>
   <si>
@@ -170,16 +182,19 @@
     <t>CT_17</t>
   </si>
   <si>
-    <t>Abundancia relativa (%)</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>ABUNDANCIA RELATIVA POR ESTACIÓN</t>
-  </si>
-  <si>
-    <t>Ocupación (%)</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
   </si>
 </sst>
 </file>
@@ -187,7 +202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -214,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -238,6 +253,43 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -245,11 +297,15 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -257,35 +313,509 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -296,6 +826,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{529BEB80-42A6-4F5F-82D1-CD35732F90E9}" name="Tabla2" displayName="Tabla2" ref="A1:D16" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:D16" xr:uid="{529BEB80-42A6-4F5F-82D1-CD35732F90E9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BBBF6A71-BC98-49E6-B79C-01B2F578D665}" name="Especie" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3FC9173C-2437-4E36-8F5E-687D3F63EC50}" name="2022" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{66419AC1-7292-42DC-BB5E-0F54B2B74630}" name="2023" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{B68F66C9-3768-4AE8-8272-EFDE79BD9C21}" name="2024" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D01F0AB3-964C-459E-B3D1-6D51BBC92198}" name="Tabla3" displayName="Tabla3" ref="A1:B14" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="A1:B14" xr:uid="{D01F0AB3-964C-459E-B3D1-6D51BBC92198}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E84056FB-7720-48BC-8CB2-816F1E3578B1}" name="Especie" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1AF8D643-A5F9-41F9-A5E9-6B1DEBCA97B9}" name="Porcentaje" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCC700E0-ABE2-41B6-A76E-9072834199D3}" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:F17" xr:uid="{BCC700E0-ABE2-41B6-A76E-9072834199D3}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D28925C8-93B7-417E-9D2C-DBFC94E69933}" name="ID_CamaraTrampa" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{FEC7B254-DEA9-4724-BBE3-C662090785FC}" name="Total_pictures" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{3716C9D5-9F66-493B-BBE5-87913F4ED485}" name="Total_animal_pictures" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{C1C0C2BE-7B15-4502-A4E8-B75886453883}" name="Total_person_pictures" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{FC99BC6C-4C66-4ABD-AE83-A32B90C2A2A3}" name="Percentage_animal_pictures" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{9A8E0A18-00FB-438B-AE85-B528393C1E06}" name="Percentage_Animal_and_person_pictures" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,348 +1154,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1970</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>101</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3">
+        <v>67</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>90</v>
-      </c>
-      <c r="F8">
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>42</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3">
+        <v>65</v>
+      </c>
+      <c r="D15" s="14">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <v>65</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>38</v>
-      </c>
-      <c r="E15">
-        <v>66</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,11 +1430,8 @@
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -978,19 +1451,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1010,19 +1480,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1048,13 +1515,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1080,13 +1544,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1094,31 +1555,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1144,13 +1602,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,31 +1613,28 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1190,31 +1642,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,31 +1671,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>52</v>
-      </c>
       <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,11 +1720,8 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1286,31 +1729,28 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1330,19 +1770,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1362,19 +1799,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,31 +1816,28 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1432,9 +1863,6 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
         <v>2</v>
       </c>
     </row>
@@ -1445,60 +1873,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1541,11 +1966,8 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1588,11 +2010,8 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1635,11 +2054,8 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1682,11 +2098,8 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1729,11 +2142,8 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1776,11 +2186,8 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1823,11 +2230,8 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1870,11 +2274,8 @@
       <c r="N9">
         <v>2</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1917,11 +2318,8 @@
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1964,11 +2362,8 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2011,11 +2406,8 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2058,11 +2450,8 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2105,11 +2494,8 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2152,11 +2538,8 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2197,9 +2580,6 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
         <v>0</v>
       </c>
     </row>
@@ -2212,125 +2592,548 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.9296875" customWidth="1"/>
+    <col min="2" max="2" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.54794520547945202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.27397260273972601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.27397260273972601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.3698630136986301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.27397260273972601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>23.56164383561644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15.890410958904109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>23.835616438356158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.54794520547945202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.6575342465753424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.27397260273972601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>27.94520547945206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.54794520547945202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.54347826086956519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.5267175572519081</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.27173913043478259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.27173913043478259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>1.3586956521739131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>6.0606060606060614</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.76335877862595414</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1.8181818181818179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.27173913043478259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>23.369565217391301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>9.7560975609756095</v>
+      </c>
+      <c r="C7">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>26.717557251908399</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>33.636363636363633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>15.760869565217391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>21.95121951219512</v>
+      </c>
+      <c r="C8">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>41.860465116279073</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>15.267175572519079</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3.6363636363636358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>23.64130434782609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>15.15151515151515</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>26.717557251908399</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>33.636363636363633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.54347826086956519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4.8780487804878048</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>4.6195652173913038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>12.195121951219511</v>
+      </c>
+      <c r="C11">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.290076335877862</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1.8181818181818179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.27173913043478259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.76335877862595414</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
-        <v>28.532608695652169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>51.219512195121951</v>
+      </c>
+      <c r="C13">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>30.232558139534881</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>25.954198473282439</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>20.90909090909091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.54347826086956519</v>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1.8181818181818179</v>
       </c>
     </row>
   </sheetData>
@@ -2338,871 +3141,259 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="11" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.5267175572519081</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.90909090909090906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.90909090909090906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>6.0606060606060614</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.76335877862595414</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1.8181818181818179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.90909090909090906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9.7560975609756095</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>9.3023255813953494</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>26.717557251908399</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>33.636363636363633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>21.95121951219512</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>41.860465116279073</v>
-      </c>
-      <c r="G9" s="4">
-        <v>100</v>
-      </c>
-      <c r="H9" s="4">
-        <v>15.267175572519079</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>3.6363636363636358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="E10" s="4">
-        <v>100</v>
-      </c>
-      <c r="F10" s="4">
-        <v>9.3023255813953494</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>26.717557251908399</v>
-      </c>
-      <c r="I10" s="4">
-        <v>100</v>
-      </c>
-      <c r="J10" s="4">
-        <v>33.636363636363633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>4.8780487804878048</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>9.3023255813953494</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2.290076335877862</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1.8181818181818179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.76335877862595414</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>51.219512195121951</v>
-      </c>
-      <c r="C14" s="4">
-        <v>100</v>
-      </c>
-      <c r="D14" s="4">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>30.232558139534881</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>25.954198473282439</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>20.90909090909091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1.8181818181818179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="5">
-        <f>SUM(B3:B15)</f>
-        <v>100</v>
-      </c>
-      <c r="C16" s="5">
-        <f t="shared" ref="C16:J16" si="0">SUM(C3:C15)</f>
-        <v>100</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="0"/>
-        <v>99.999999999999972</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="11" width="14.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="4">
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="4">
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="4">
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="4">
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4">
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="4">
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="4">
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="4">
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="4">
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="4">
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="4">
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="4">
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="4">
-        <v>11.111111111111111</v>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -3212,143 +3403,377 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.46484375" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" customWidth="1"/>
+    <col min="5" max="5" width="25.53125" customWidth="1"/>
+    <col min="6" max="6" width="34.265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3">
+        <v>144</v>
+      </c>
+      <c r="C2" s="3">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.194444444444443</v>
+      </c>
+      <c r="F2" s="6">
+        <v>70.833333333333343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>38.194444444444443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3">
+        <v>412</v>
+      </c>
+      <c r="C3" s="3">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3">
+        <v>77</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9.4660194174757279</v>
+      </c>
+      <c r="F3" s="6">
+        <v>28.155339805825239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>9.4660194174757279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="3">
+        <v>123</v>
+      </c>
+      <c r="C4" s="3">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>91</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10.56910569105691</v>
+      </c>
+      <c r="F4" s="6">
+        <v>84.552845528455293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>10.56910569105691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="3">
+        <v>446</v>
+      </c>
+      <c r="C5" s="3">
+        <v>233</v>
+      </c>
+      <c r="D5" s="3">
+        <v>91</v>
+      </c>
+      <c r="E5" s="4">
+        <v>52.242152466367713</v>
+      </c>
+      <c r="F5" s="6">
+        <v>70.852017937219742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>52.242152466367713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="3">
+        <v>4113</v>
+      </c>
+      <c r="C6" s="3">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3">
+        <v>151</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.723073182591782</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6.2484804279114998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>2.723073182591782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3">
+        <v>473</v>
+      </c>
+      <c r="C7" s="3">
+        <v>271</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4">
+        <v>57.293868921775903</v>
+      </c>
+      <c r="F7" s="6">
+        <v>69.556025369978855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>57.293868921775903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="3">
+        <v>1330</v>
+      </c>
+      <c r="C8" s="3">
+        <v>309</v>
+      </c>
+      <c r="D8" s="3">
+        <v>395</v>
+      </c>
+      <c r="E8" s="4">
+        <v>23.233082706766911</v>
+      </c>
+      <c r="F8" s="6">
+        <v>50.902255639097753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
-        <v>23.233082706766911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="3">
+        <v>2190</v>
+      </c>
+      <c r="C9" s="3">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.6438356164383561</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.926940639269406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
-        <v>1.6438356164383561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="3">
+        <v>316</v>
+      </c>
+      <c r="C10" s="3">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3">
+        <v>160</v>
+      </c>
+      <c r="E10" s="4">
+        <v>22.151898734177209</v>
+      </c>
+      <c r="F10" s="6">
+        <v>72.784810126582272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
-        <v>22.151898734177209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="3">
+        <v>386</v>
+      </c>
+      <c r="C11" s="3">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3">
+        <v>121</v>
+      </c>
+      <c r="E11" s="4">
+        <v>14.766839378238339</v>
+      </c>
+      <c r="F11" s="6">
+        <v>46.1139896373057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11">
-        <v>14.766839378238339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4">
+        <v>38</v>
+      </c>
+      <c r="F12" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="3">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
+      <c r="B15" s="3">
+        <v>400</v>
+      </c>
+      <c r="C15" s="3">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
+      <c r="F15" s="6">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1760</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>352</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="11">
+        <f>SUM(B2:B16)</f>
+        <v>12176</v>
+      </c>
+      <c r="C17" s="11">
+        <f>SUM(C2:C16)</f>
+        <v>1231</v>
+      </c>
+      <c r="D17" s="11">
+        <f>SUM(D2:D16)</f>
+        <v>1682</v>
+      </c>
+      <c r="E17" s="13">
+        <f>(Tabla1[[#This Row],[Total_animal_pictures]]*100)/Tabla1[[#This Row],[Total_pictures]]</f>
+        <v>10.110052562417872</v>
+      </c>
+      <c r="F17" s="13">
+        <f>((Tabla1[[#This Row],[Total_animal_pictures]]+Tabla1[[#This Row],[Total_person_pictures]])*100)/Tabla1[[#This Row],[Total_pictures]]</f>
+        <v>23.924113009198422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H19" s="2">
+        <f>100 - F17</f>
+        <v>76.075886990801578</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>